--- a/hillary-clinton-baby-names-070116/hillary-clinton-baby-names-070116.xlsx
+++ b/hillary-clinton-baby-names-070116/hillary-clinton-baby-names-070116.xlsx
@@ -17,100 +17,100 @@
     <t>key</t>
   </si>
   <si>
+    <t>Hillary</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>headline</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>The Headline For This Line Chart</t>
   </si>
   <si>
+    <t>dateold</t>
+  </si>
+  <si>
+    <t>12/31/1947</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
     <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
   </si>
   <si>
+    <t>12/31/1948</t>
+  </si>
+  <si>
+    <t>12/31/1949</t>
+  </si>
+  <si>
+    <t>12/31/1950</t>
+  </si>
+  <si>
+    <t>12/31/1951</t>
+  </si>
+  <si>
+    <t>12/31/1952</t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
+    <t>12/31/1953</t>
+  </si>
+  <si>
+    <t>12/31/1954</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
+    <t>12/31/1955</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>12/31/1956</t>
+  </si>
+  <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
+    <t>12/31/1957</t>
+  </si>
+  <si>
+    <t>12/31/1958</t>
+  </si>
+  <si>
+    <t>12/31/1959</t>
+  </si>
+  <si>
+    <t>12/31/1960</t>
+  </si>
+  <si>
+    <t>12/31/1961</t>
+  </si>
+  <si>
+    <t>12/31/1962</t>
+  </si>
+  <si>
+    <t>12/31/1963</t>
+  </si>
+  <si>
     <t>ref-line-hillary</t>
   </si>
   <si>
     <t>1992: Bill Clinton Elected President</t>
-  </si>
-  <si>
-    <t>Hillary</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>dateold</t>
-  </si>
-  <si>
-    <t>12/31/1947</t>
-  </si>
-  <si>
-    <t>12/31/1948</t>
-  </si>
-  <si>
-    <t>12/31/1949</t>
-  </si>
-  <si>
-    <t>12/31/1950</t>
-  </si>
-  <si>
-    <t>12/31/1951</t>
-  </si>
-  <si>
-    <t>12/31/1952</t>
-  </si>
-  <si>
-    <t>12/31/1953</t>
-  </si>
-  <si>
-    <t>12/31/1954</t>
-  </si>
-  <si>
-    <t>12/31/1955</t>
-  </si>
-  <si>
-    <t>12/31/1956</t>
-  </si>
-  <si>
-    <t>12/31/1957</t>
-  </si>
-  <si>
-    <t>12/31/1958</t>
-  </si>
-  <si>
-    <t>12/31/1959</t>
-  </si>
-  <si>
-    <t>12/31/1960</t>
-  </si>
-  <si>
-    <t>12/31/1961</t>
-  </si>
-  <si>
-    <t>12/31/1962</t>
-  </si>
-  <si>
-    <t>12/31/1963</t>
   </si>
   <si>
     <t>12/31/1964</t>
@@ -284,11 +284,11 @@
       <sz val="14.0"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <b/>
     </font>
     <font/>
     <font>
-      <b/>
+      <sz val="14.0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -300,14 +300,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFCBCBCB"/>
+        <bgColor rgb="FFCBCBCB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCBCBCB"/>
-        <bgColor rgb="FFCBCBCB"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -343,44 +343,44 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -391,11 +391,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -415,472 +415,472 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -895,1313 +895,1313 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9">
+        <v>0.0029</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12">
+        <v>0.0571</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>1947.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9">
+        <v>0.0025</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12">
+        <v>0.0601</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>1948.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9">
+        <v>0.0028</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12">
+        <v>0.0687</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>1949.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9">
+        <v>0.0032</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12">
+        <v>0.0728</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>1950.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9">
+        <v>0.0022</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>0.0852</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>1951.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
+        <v>0.0023</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12">
-        <v>0.0029</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14">
-        <v>0.0571</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
-        <v>1947.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12">
-        <v>0.0025</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
+        <v>0.1049</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>1952.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <v>0.003</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14">
-        <v>0.0601</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12">
+        <v>0.1205</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
-        <v>1948.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12">
-        <v>0.0028</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>1953.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9">
+        <v>0.004</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14">
-        <v>0.0687</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12">
+        <v>0.1317</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>1949.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12">
-        <v>0.0032</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14">
-        <v>0.0728</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>1950.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12">
-        <v>0.0022</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>1954.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
+        <v>0.0036</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14">
-        <v>0.0852</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12">
+        <v>0.1597</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>1951.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12">
-        <v>0.0023</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14">
-        <v>0.1049</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>1952.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>1955.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
+        <v>0.0049</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14">
-        <v>0.1205</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12">
+        <v>0.2065</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>1953.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12">
-        <v>0.004</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14">
-        <v>0.1317</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1954.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12">
-        <v>0.0036</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>1956.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
+        <v>0.0043</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14">
-        <v>0.1597</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12">
+        <v>0.2422</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>1955.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12">
-        <v>0.0049</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>1957.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
+        <v>0.0047</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14">
-        <v>0.2065</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12">
+        <v>0.3007</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>1956.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12">
-        <v>0.0043</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>1958.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9">
+        <v>0.0041</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14">
-        <v>0.2422</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12">
+        <v>0.3076</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
-        <v>1957.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="12">
-        <v>0.0047</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>1959.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9">
+        <v>0.0037</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14">
-        <v>0.3007</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <v>1958.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="12">
-        <v>0.0041</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>1960.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
+        <v>0.0055</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14">
-        <v>0.3076</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12">
+        <v>0.3336</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>1959.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12">
-        <v>0.0037</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>1961.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9">
+        <v>0.0057</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14">
-        <v>0.3249</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12">
+        <v>0.3523</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
-        <v>1960.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12">
-        <v>0.0055</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>1962.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9">
+        <v>0.0077</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14">
-        <v>0.3336</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12">
+        <v>0.3959</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>1961.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="12">
-        <v>0.0057</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14">
-        <v>0.3523</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
-        <v>1962.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12">
-        <v>0.0077</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14">
-        <v>0.3959</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
         <v>1963.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>0.007</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12">
         <v>0.4509</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>1964.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>0.0063</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12">
         <v>0.5369</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>1965.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>0.0073</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12">
         <v>0.6059</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <v>1966.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>0.0094</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
         <v>0.7785</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>1967.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>0.0109</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14">
+      <c r="C23" s="11"/>
+      <c r="D23" s="12">
         <v>0.9111</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>1968.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>0.0117</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14">
+      <c r="C24" s="11"/>
+      <c r="D24" s="12">
         <v>0.977</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>1969.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>0.0148</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14">
+      <c r="C25" s="11"/>
+      <c r="D25" s="12">
         <v>1.0866</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <v>1970.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>0.0151</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
+      <c r="C26" s="11"/>
+      <c r="D26" s="12">
         <v>1.2755</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>1971.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>0.0159</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14">
+      <c r="C27" s="11"/>
+      <c r="D27" s="12">
         <v>1.4142</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
         <v>1972.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>0.0171</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14">
+      <c r="C28" s="11"/>
+      <c r="D28" s="12">
         <v>1.5746</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
         <v>1973.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>0.0213</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12">
         <v>1.7308</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
         <v>1974.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>0.0222</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12">
         <v>1.8288</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3">
         <v>1975.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>0.0226</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12">
         <v>1.9107</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
         <v>1976.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>0.0288</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12">
         <v>1.9452</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
         <v>1977.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>0.0469</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14">
+      <c r="C33" s="11"/>
+      <c r="D33" s="12">
         <v>2.0892</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
         <v>1978.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>0.0574</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14">
+      <c r="C34" s="11"/>
+      <c r="D34" s="12">
         <v>2.0708</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
         <v>1979.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>0.0503</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12">
         <v>2.1222</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
         <v>1980.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>0.0441</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12">
         <v>2.4191</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
         <v>1981.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>0.0445</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12">
         <v>2.5387</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
         <v>1982.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12">
+      <c r="A38" s="9">
         <v>0.0417</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14">
+      <c r="C38" s="11"/>
+      <c r="D38" s="12">
         <v>2.8019</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
         <v>1983.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12">
+      <c r="A39" s="9">
         <v>0.06</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14">
+      <c r="C39" s="11"/>
+      <c r="D39" s="12">
         <v>2.7587</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
         <v>1984.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12">
+      <c r="A40" s="9">
         <v>0.0609</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14">
+      <c r="C40" s="11"/>
+      <c r="D40" s="12">
         <v>2.5473</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
         <v>1985.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12">
+      <c r="A41" s="9">
         <v>0.0632</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14">
+      <c r="C41" s="11"/>
+      <c r="D41" s="12">
         <v>2.5491</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
         <v>1986.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12">
+      <c r="A42" s="9">
         <v>0.0621</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14">
+      <c r="C42" s="11"/>
+      <c r="D42" s="12">
         <v>2.4909</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
         <v>1987.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12">
+      <c r="A43" s="9">
         <v>0.0608</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14">
+      <c r="C43" s="11"/>
+      <c r="D43" s="12">
         <v>2.3981</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
         <v>1988.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12">
+      <c r="A44" s="9">
         <v>0.0697</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14">
+      <c r="C44" s="11"/>
+      <c r="D44" s="12">
         <v>2.2686</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
         <v>1989.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12">
+      <c r="A45" s="9">
         <v>0.0803</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14">
+      <c r="C45" s="11"/>
+      <c r="D45" s="12">
         <v>2.1824</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
         <v>1990.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12">
+      <c r="A46" s="9">
         <v>0.0954</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14">
+      <c r="C46" s="11"/>
+      <c r="D46" s="12">
         <v>2.0616</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
         <v>1991.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12">
+      <c r="A47" s="9">
         <v>0.1368</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14">
+      <c r="C47" s="11"/>
+      <c r="D47" s="12">
         <v>1.8899</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
         <v>1992.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="12">
+      <c r="A48" s="9">
         <v>0.0588</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14">
+      <c r="C48" s="11"/>
+      <c r="D48" s="12">
         <v>1.8246</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
         <v>1993.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12">
+      <c r="A49" s="9">
         <v>0.0229</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14">
+      <c r="C49" s="11"/>
+      <c r="D49" s="12">
         <v>1.7422</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
         <v>1994.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12">
+      <c r="A50" s="9">
         <v>0.0176</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14">
+      <c r="C50" s="11"/>
+      <c r="D50" s="12">
         <v>1.7276</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
         <v>1995.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12">
+      <c r="A51" s="9">
         <v>0.0178</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14">
+      <c r="C51" s="11"/>
+      <c r="D51" s="12">
         <v>1.6939</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
         <v>1996.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12">
+      <c r="A52" s="9">
         <v>0.0169</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14">
+      <c r="C52" s="11"/>
+      <c r="D52" s="12">
         <v>1.6725</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
         <v>1997.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12">
+      <c r="A53" s="9">
         <v>0.0138</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14">
+      <c r="C53" s="11"/>
+      <c r="D53" s="12">
         <v>1.63</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
         <v>1998.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="12">
+      <c r="A54" s="9">
         <v>0.0143</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14">
+      <c r="C54" s="11"/>
+      <c r="D54" s="12">
         <v>1.585</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
         <v>1999.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12">
+      <c r="A55" s="9">
         <v>0.0139</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14">
+      <c r="C55" s="11"/>
+      <c r="D55" s="12">
         <v>1.4558</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
         <v>2000.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="12">
+      <c r="A56" s="9">
         <v>0.0144</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14">
+      <c r="C56" s="11"/>
+      <c r="D56" s="12">
         <v>1.3805</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
         <v>2001.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12">
+      <c r="A57" s="9">
         <v>0.011</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14">
+      <c r="C57" s="11"/>
+      <c r="D57" s="12">
         <v>1.2964</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
         <v>2002.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12">
+      <c r="A58" s="9">
         <v>0.0123</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14">
+      <c r="C58" s="11"/>
+      <c r="D58" s="12">
         <v>1.2156</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
         <v>2003.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12">
+      <c r="A59" s="9">
         <v>0.0169</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14">
+      <c r="C59" s="11"/>
+      <c r="D59" s="12">
         <v>1.1533</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
         <v>2004.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12">
+      <c r="A60" s="9">
         <v>0.0154</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14">
+      <c r="C60" s="11"/>
+      <c r="D60" s="12">
         <v>1.0756</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
         <v>2005.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12">
+      <c r="A61" s="9">
         <v>0.014</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14">
+      <c r="C61" s="11"/>
+      <c r="D61" s="12">
         <v>0.9899</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
         <v>2006.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="12">
+      <c r="A62" s="9">
         <v>0.0147</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14">
+      <c r="C62" s="11"/>
+      <c r="D62" s="12">
         <v>0.9035</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
         <v>2007.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="12">
+      <c r="A63" s="9">
         <v>0.0218</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14">
+      <c r="C63" s="11"/>
+      <c r="D63" s="12">
         <v>0.863</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
         <v>2008.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="12">
+      <c r="A64" s="9">
         <v>0.0109</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14">
+      <c r="C64" s="11"/>
+      <c r="D64" s="12">
         <v>0.8068</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
         <v>2009.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="12">
+      <c r="A65" s="9">
         <v>0.0094</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14">
+      <c r="C65" s="11"/>
+      <c r="D65" s="12">
         <v>0.7367</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
         <v>2010.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="12">
+      <c r="A66" s="9">
         <v>0.0095</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14">
+      <c r="C66" s="11"/>
+      <c r="D66" s="12">
         <v>0.7471</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3">
         <v>2011.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="12">
+      <c r="A67" s="9">
         <v>0.009</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14">
+      <c r="C67" s="11"/>
+      <c r="D67" s="12">
         <v>0.738</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
         <v>2012.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="12">
+      <c r="A68" s="9">
         <v>0.0088</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14">
+      <c r="C68" s="11"/>
+      <c r="D68" s="12">
         <v>0.7063</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
         <v>2013.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12">
+      <c r="A69" s="9">
         <v>0.01</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14">
+      <c r="C69" s="11"/>
+      <c r="D69" s="12">
         <v>0.6737</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
         <v>2014.0</v>
       </c>
     </row>

--- a/hillary-clinton-baby-names-070116/hillary-clinton-baby-names-070116.xlsx
+++ b/hillary-clinton-baby-names-070116/hillary-clinton-baby-names-070116.xlsx
@@ -38,15 +38,33 @@
     <t>dateold</t>
   </si>
   <si>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ref-line-hillary</t>
+  </si>
+  <si>
+    <t>1992: Bill Clinton Elected President</t>
+  </si>
+  <si>
     <t>12/31/1947</t>
   </si>
   <si>
-    <t>subhed</t>
-  </si>
-  <si>
-    <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
-  </si>
-  <si>
     <t>12/31/1948</t>
   </si>
   <si>
@@ -62,30 +80,18 @@
     <t>12/31/1952</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>12/31/1953</t>
   </si>
   <si>
     <t>12/31/1954</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>12/31/1955</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>12/31/1956</t>
   </si>
   <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>12/31/1957</t>
   </si>
   <si>
@@ -105,12 +111,6 @@
   </si>
   <si>
     <t>12/31/1963</t>
-  </si>
-  <si>
-    <t>ref-line-hillary</t>
-  </si>
-  <si>
-    <t>1992: Bill Clinton Elected President</t>
   </si>
   <si>
     <t>12/31/1964</t>
@@ -312,12 +312,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -338,51 +333,51 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -392,15 +387,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,30 +415,30 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -449,438 +447,438 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -889,6 +887,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -898,1310 +899,1310 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>0.0029</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14">
         <v>0.0571</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
         <v>1947.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="12">
         <v>0.0025</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14">
         <v>0.0601</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>1948.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <v>0.0028</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14">
         <v>0.0687</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
         <v>1949.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>0.0032</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
         <v>0.0728</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>1950.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <v>0.0022</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12">
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14">
         <v>0.0852</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>1951.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="12">
         <v>0.0023</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
         <v>0.1049</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>1952.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="12">
         <v>0.003</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
         <v>0.1205</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>1953.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>0.004</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14">
         <v>0.1317</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>1954.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <v>0.0036</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
         <v>0.1597</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>1955.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <v>0.0049</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14">
         <v>0.2065</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>1956.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="12">
         <v>0.0043</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12">
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14">
         <v>0.2422</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>1957.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>0.0047</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12">
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14">
         <v>0.3007</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <v>1958.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>0.0041</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14">
         <v>0.3076</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>1959.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>0.0037</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12">
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14">
         <v>0.3249</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>1960.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <v>0.0055</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14">
         <v>0.3336</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>1961.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>0.0057</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12">
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14">
         <v>0.3523</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
         <v>1962.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>0.0077</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12">
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
         <v>0.3959</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
         <v>1963.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <v>0.007</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14">
         <v>0.4509</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
         <v>1964.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>0.0063</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14">
         <v>0.5369</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
         <v>1965.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <v>0.0073</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
         <v>0.6059</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>1966.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>0.0094</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
         <v>0.7785</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
         <v>1967.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9">
+      <c r="A23" s="12">
         <v>0.0109</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14">
         <v>0.9111</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <v>1968.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>0.0117</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
         <v>0.977</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
         <v>1969.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9">
+      <c r="A25" s="12">
         <v>0.0148</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14">
         <v>1.0866</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
         <v>1970.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9">
+      <c r="A26" s="12">
         <v>0.0151</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14">
         <v>1.2755</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
         <v>1971.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9">
+      <c r="A27" s="12">
         <v>0.0159</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14">
         <v>1.4142</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
         <v>1972.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9">
+      <c r="A28" s="12">
         <v>0.0171</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14">
         <v>1.5746</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
         <v>1973.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9">
+      <c r="A29" s="12">
         <v>0.0213</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14">
         <v>1.7308</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
         <v>1974.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9">
+      <c r="A30" s="12">
         <v>0.0222</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14">
         <v>1.8288</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
         <v>1975.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9">
+      <c r="A31" s="12">
         <v>0.0226</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14">
         <v>1.9107</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
         <v>1976.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9">
+      <c r="A32" s="12">
         <v>0.0288</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14">
         <v>1.9452</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
         <v>1977.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <v>0.0469</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14">
         <v>2.0892</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
         <v>1978.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9">
+      <c r="A34" s="12">
         <v>0.0574</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14">
         <v>2.0708</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
         <v>1979.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9">
+      <c r="A35" s="12">
         <v>0.0503</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14">
         <v>2.1222</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
         <v>1980.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9">
+      <c r="A36" s="12">
         <v>0.0441</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14">
         <v>2.4191</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
         <v>1981.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9">
+      <c r="A37" s="12">
         <v>0.0445</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14">
         <v>2.5387</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
         <v>1982.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9">
+      <c r="A38" s="12">
         <v>0.0417</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14">
         <v>2.8019</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
         <v>1983.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9">
+      <c r="A39" s="12">
         <v>0.06</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14">
         <v>2.7587</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
         <v>1984.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <v>0.0609</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14">
         <v>2.5473</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4">
         <v>1985.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9">
+      <c r="A41" s="12">
         <v>0.0632</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14">
         <v>2.5491</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4">
         <v>1986.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9">
+      <c r="A42" s="12">
         <v>0.0621</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14">
         <v>2.4909</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4">
         <v>1987.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <v>0.0608</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14">
         <v>2.3981</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4">
         <v>1988.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9">
+      <c r="A44" s="12">
         <v>0.0697</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14">
         <v>2.2686</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4">
         <v>1989.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <v>0.0803</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12">
+      <c r="C45" s="13"/>
+      <c r="D45" s="14">
         <v>2.1824</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4">
         <v>1990.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9">
+      <c r="A46" s="12">
         <v>0.0954</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12">
+      <c r="C46" s="13"/>
+      <c r="D46" s="14">
         <v>2.0616</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4">
         <v>1991.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9">
+      <c r="A47" s="12">
         <v>0.1368</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14">
         <v>1.8899</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4">
         <v>1992.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9">
+      <c r="A48" s="12">
         <v>0.0588</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12">
+      <c r="C48" s="13"/>
+      <c r="D48" s="14">
         <v>1.8246</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4">
         <v>1993.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9">
+      <c r="A49" s="12">
         <v>0.0229</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12">
+      <c r="C49" s="13"/>
+      <c r="D49" s="14">
         <v>1.7422</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4">
         <v>1994.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9">
+      <c r="A50" s="12">
         <v>0.0176</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12">
+      <c r="C50" s="13"/>
+      <c r="D50" s="14">
         <v>1.7276</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4">
         <v>1995.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9">
+      <c r="A51" s="12">
         <v>0.0178</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12">
+      <c r="C51" s="13"/>
+      <c r="D51" s="14">
         <v>1.6939</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4">
         <v>1996.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9">
+      <c r="A52" s="12">
         <v>0.0169</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12">
+      <c r="C52" s="13"/>
+      <c r="D52" s="14">
         <v>1.6725</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4">
         <v>1997.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9">
+      <c r="A53" s="12">
         <v>0.0138</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12">
+      <c r="C53" s="13"/>
+      <c r="D53" s="14">
         <v>1.63</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4">
         <v>1998.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9">
+      <c r="A54" s="12">
         <v>0.0143</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12">
+      <c r="C54" s="13"/>
+      <c r="D54" s="14">
         <v>1.585</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4">
         <v>1999.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9">
+      <c r="A55" s="12">
         <v>0.0139</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12">
+      <c r="C55" s="13"/>
+      <c r="D55" s="14">
         <v>1.4558</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4">
         <v>2000.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9">
+      <c r="A56" s="12">
         <v>0.0144</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12">
+      <c r="C56" s="13"/>
+      <c r="D56" s="14">
         <v>1.3805</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4">
         <v>2001.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9">
+      <c r="A57" s="12">
         <v>0.011</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12">
+      <c r="C57" s="13"/>
+      <c r="D57" s="14">
         <v>1.2964</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4">
         <v>2002.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9">
+      <c r="A58" s="12">
         <v>0.0123</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12">
+      <c r="C58" s="13"/>
+      <c r="D58" s="14">
         <v>1.2156</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4">
         <v>2003.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9">
+      <c r="A59" s="12">
         <v>0.0169</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12">
+      <c r="C59" s="13"/>
+      <c r="D59" s="14">
         <v>1.1533</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4">
         <v>2004.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9">
+      <c r="A60" s="12">
         <v>0.0154</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12">
+      <c r="C60" s="13"/>
+      <c r="D60" s="14">
         <v>1.0756</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4">
         <v>2005.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9">
+      <c r="A61" s="12">
         <v>0.014</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12">
+      <c r="C61" s="13"/>
+      <c r="D61" s="14">
         <v>0.9899</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4">
         <v>2006.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9">
+      <c r="A62" s="12">
         <v>0.0147</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12">
+      <c r="C62" s="13"/>
+      <c r="D62" s="14">
         <v>0.9035</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4">
         <v>2007.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9">
+      <c r="A63" s="12">
         <v>0.0218</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12">
+      <c r="C63" s="13"/>
+      <c r="D63" s="14">
         <v>0.863</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4">
         <v>2008.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9">
+      <c r="A64" s="12">
         <v>0.0109</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12">
+      <c r="C64" s="13"/>
+      <c r="D64" s="14">
         <v>0.8068</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4">
         <v>2009.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9">
+      <c r="A65" s="12">
         <v>0.0094</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12">
+      <c r="C65" s="13"/>
+      <c r="D65" s="14">
         <v>0.7367</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4">
         <v>2010.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9">
+      <c r="A66" s="12">
         <v>0.0095</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12">
+      <c r="C66" s="13"/>
+      <c r="D66" s="14">
         <v>0.7471</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4">
         <v>2011.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9">
+      <c r="A67" s="12">
         <v>0.009</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12">
+      <c r="C67" s="13"/>
+      <c r="D67" s="14">
         <v>0.738</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4">
         <v>2012.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9">
+      <c r="A68" s="12">
         <v>0.0088</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12">
+      <c r="C68" s="13"/>
+      <c r="D68" s="14">
         <v>0.7063</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4">
         <v>2013.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9">
+      <c r="A69" s="12">
         <v>0.01</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12">
+      <c r="C69" s="13"/>
+      <c r="D69" s="14">
         <v>0.6737</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4">
         <v>2014.0</v>
       </c>
     </row>
